--- a/team_specific_matrix/UTSA_B.xlsx
+++ b/team_specific_matrix/UTSA_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.196652719665272</v>
+        <v>0.2005730659025788</v>
       </c>
       <c r="C2">
-        <v>0.5606694560669456</v>
+        <v>0.5329512893982808</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004184100418410041</v>
+        <v>0.01432664756446991</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1464435146443515</v>
+        <v>0.169054441260745</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09205020920502092</v>
+        <v>0.0830945558739255</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="C3">
-        <v>0.02877697841726619</v>
+        <v>0.03125</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07913669064748201</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7194244604316546</v>
+        <v>0.7135416666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1726618705035971</v>
+        <v>0.1822916666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6744186046511628</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2790697674418605</v>
+        <v>0.2452830188679245</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08092485549132948</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02312138728323699</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05202312138728324</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2890173410404624</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01734104046242774</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.115606936416185</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="R6">
-        <v>0.07514450867052024</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S6">
-        <v>0.3468208092485549</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1325301204819277</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01807228915662651</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0783132530120482</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.108433734939759</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006024096385542169</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1746987951807229</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="R7">
-        <v>0.108433734939759</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="S7">
-        <v>0.3734939759036144</v>
+        <v>0.3761467889908257</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.125</v>
+        <v>0.1457286432160804</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02884615384615385</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03205128205128205</v>
+        <v>0.03266331658291458</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.108974358974359</v>
+        <v>0.1080402010050251</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02243589743589744</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1923076923076923</v>
+        <v>0.1909547738693467</v>
       </c>
       <c r="R8">
-        <v>0.1153846153846154</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="S8">
-        <v>0.375</v>
+        <v>0.3618090452261307</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09268292682926829</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01951219512195122</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05853658536585366</v>
+        <v>0.056</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1073170731707317</v>
+        <v>0.12</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01463414634146342</v>
+        <v>0.02</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1853658536585366</v>
+        <v>0.172</v>
       </c>
       <c r="R9">
-        <v>0.1121951219512195</v>
+        <v>0.108</v>
       </c>
       <c r="S9">
-        <v>0.4097560975609756</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09857723577235772</v>
+        <v>0.1113636363636364</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0233739837398374</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="E10">
-        <v>0.003048780487804878</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="F10">
-        <v>0.0701219512195122</v>
+        <v>0.06515151515151515</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1128048780487805</v>
+        <v>0.121969696969697</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009146341463414634</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2367886178861789</v>
+        <v>0.221969696969697</v>
       </c>
       <c r="R10">
-        <v>0.1016260162601626</v>
+        <v>0.0946969696969697</v>
       </c>
       <c r="S10">
-        <v>0.3445121951219512</v>
+        <v>0.3522727272727273</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1603053435114504</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0648854961832061</v>
+        <v>0.07309941520467836</v>
       </c>
       <c r="K11">
-        <v>0.1908396946564886</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="L11">
-        <v>0.5648854961832062</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01908396946564886</v>
+        <v>0.02339181286549707</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.006622516556291391</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="G12">
-        <v>0.7218543046357616</v>
+        <v>0.7305699481865285</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2052980132450331</v>
+        <v>0.2020725388601036</v>
       </c>
       <c r="K12">
-        <v>0.01986754966887417</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="L12">
-        <v>0.02649006622516556</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01986754966887417</v>
+        <v>0.02590673575129534</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5588235294117647</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3235294117647059</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1176470588235294</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03821656050955414</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07643312101910828</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="I15">
-        <v>0.1210191082802548</v>
+        <v>0.1073170731707317</v>
       </c>
       <c r="J15">
-        <v>0.3121019108280255</v>
+        <v>0.3560975609756097</v>
       </c>
       <c r="K15">
-        <v>0.07643312101910828</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02547770700636943</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1019108280254777</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2484076433121019</v>
+        <v>0.248780487804878</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0379746835443038</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1329113924050633</v>
+        <v>0.1306306306306306</v>
       </c>
       <c r="I16">
-        <v>0.1329113924050633</v>
+        <v>0.1126126126126126</v>
       </c>
       <c r="J16">
-        <v>0.3481012658227848</v>
+        <v>0.3288288288288289</v>
       </c>
       <c r="K16">
-        <v>0.1392405063291139</v>
+        <v>0.1396396396396396</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01265822784810127</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0379746835443038</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1582278481012658</v>
+        <v>0.1756756756756757</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.016</v>
+        <v>0.01483050847457627</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.176</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="I17">
-        <v>0.1013333333333333</v>
+        <v>0.09957627118644068</v>
       </c>
       <c r="J17">
-        <v>0.44</v>
+        <v>0.4279661016949153</v>
       </c>
       <c r="K17">
-        <v>0.07466666666666667</v>
+        <v>0.08050847457627118</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01333333333333333</v>
+        <v>0.01483050847457627</v>
       </c>
       <c r="N17">
-        <v>0.002666666666666667</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="O17">
-        <v>0.04533333333333334</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1306666666666667</v>
+        <v>0.1398305084745763</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005208333333333333</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1875</v>
+        <v>0.174468085106383</v>
       </c>
       <c r="I18">
-        <v>0.1145833333333333</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="J18">
-        <v>0.3958333333333333</v>
+        <v>0.4170212765957447</v>
       </c>
       <c r="K18">
-        <v>0.1197916666666667</v>
+        <v>0.1191489361702128</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01041666666666667</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05729166666666666</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.109375</v>
+        <v>0.1021276595744681</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02085402184707051</v>
+        <v>0.01822323462414579</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1727904667328699</v>
+        <v>0.1738800303720577</v>
       </c>
       <c r="I19">
-        <v>0.1062562065541212</v>
+        <v>0.1009870918754746</v>
       </c>
       <c r="J19">
-        <v>0.3396226415094339</v>
+        <v>0.3568716780561883</v>
       </c>
       <c r="K19">
-        <v>0.1231380337636544</v>
+        <v>0.1207289293849658</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02284011916583913</v>
+        <v>0.02126044039483675</v>
       </c>
       <c r="N19">
-        <v>0.0009930486593843098</v>
+        <v>0.0007593014426727411</v>
       </c>
       <c r="O19">
-        <v>0.06156901688182721</v>
+        <v>0.06150341685649203</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1519364448857994</v>
+        <v>0.1457858769931663</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UTSA_B.xlsx
+++ b/team_specific_matrix/UTSA_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2005730659025788</v>
+        <v>0.2036553524804177</v>
       </c>
       <c r="C2">
-        <v>0.5329512893982808</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01432664756446991</v>
+        <v>0.01305483028720627</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.169054441260745</v>
+        <v>0.1906005221932115</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0830945558739255</v>
+        <v>0.07571801566579635</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005208333333333333</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C3">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06770833333333333</v>
+        <v>0.06372549019607843</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7135416666666666</v>
+        <v>0.7205882352941176</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1822916666666667</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07547169811320754</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P4">
-        <v>0.6792452830188679</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2452830188679245</v>
+        <v>0.2459016393442623</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09523809523809523</v>
+        <v>0.09871244635193133</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02380952380952381</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04761904761904762</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2857142857142857</v>
+        <v>0.2832618025751073</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01904761904761905</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.119047619047619</v>
+        <v>0.1244635193133047</v>
       </c>
       <c r="R6">
-        <v>0.06666666666666667</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="S6">
-        <v>0.3428571428571429</v>
+        <v>0.3433476394849785</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1100917431192661</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02293577981651376</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07339449541284404</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1192660550458716</v>
+        <v>0.1144067796610169</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01376146788990826</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1834862385321101</v>
+        <v>0.1822033898305085</v>
       </c>
       <c r="R7">
-        <v>0.1009174311926606</v>
+        <v>0.09745762711864407</v>
       </c>
       <c r="S7">
-        <v>0.3761467889908257</v>
+        <v>0.3813559322033898</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1457286432160804</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02512562814070352</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03266331658291458</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1080402010050251</v>
+        <v>0.1055045871559633</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02010050251256281</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1909547738693467</v>
+        <v>0.1903669724770642</v>
       </c>
       <c r="R8">
-        <v>0.1155778894472362</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="S8">
-        <v>0.3618090452261307</v>
+        <v>0.3692660550458716</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.0944055944055944</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.056</v>
+        <v>0.05594405594405594</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.12</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.172</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="R9">
-        <v>0.108</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="S9">
-        <v>0.404</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1113636363636364</v>
+        <v>0.1085164835164835</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02272727272727273</v>
+        <v>0.02335164835164835</v>
       </c>
       <c r="E10">
-        <v>0.002272727272727273</v>
+        <v>0.00206043956043956</v>
       </c>
       <c r="F10">
-        <v>0.06515151515151515</v>
+        <v>0.06387362637362637</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.121969696969697</v>
+        <v>0.1215659340659341</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007575757575757576</v>
+        <v>0.008241758241758242</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.221969696969697</v>
+        <v>0.2190934065934066</v>
       </c>
       <c r="R10">
-        <v>0.0946969696969697</v>
+        <v>0.09409340659340659</v>
       </c>
       <c r="S10">
-        <v>0.3522727272727273</v>
+        <v>0.3592032967032967</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1578947368421053</v>
+        <v>0.1542553191489362</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07309941520467836</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="K11">
-        <v>0.1929824561403509</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="L11">
-        <v>0.5526315789473685</v>
+        <v>0.5585106382978723</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02339181286549707</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.005181347150259068</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="G12">
-        <v>0.7305699481865285</v>
+        <v>0.719626168224299</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2020725388601036</v>
+        <v>0.2196261682242991</v>
       </c>
       <c r="K12">
-        <v>0.0155440414507772</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="L12">
-        <v>0.02072538860103627</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02590673575129534</v>
+        <v>0.02336448598130841</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5957446808510638</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2978723404255319</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1063829787234043</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02926829268292683</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07804878048780488</v>
+        <v>0.08071748878923767</v>
       </c>
       <c r="I15">
-        <v>0.1073170731707317</v>
+        <v>0.1165919282511211</v>
       </c>
       <c r="J15">
-        <v>0.3560975609756097</v>
+        <v>0.3497757847533632</v>
       </c>
       <c r="K15">
-        <v>0.07804878048780488</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02439024390243903</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07804878048780488</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.248780487804878</v>
+        <v>0.2466367713004484</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03153153153153153</v>
+        <v>0.03187250996015936</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1306306306306306</v>
+        <v>0.1434262948207171</v>
       </c>
       <c r="I16">
-        <v>0.1126126126126126</v>
+        <v>0.1035856573705179</v>
       </c>
       <c r="J16">
-        <v>0.3288288288288289</v>
+        <v>0.3266932270916335</v>
       </c>
       <c r="K16">
-        <v>0.1396396396396396</v>
+        <v>0.1434262948207171</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02252252252252252</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05855855855855856</v>
+        <v>0.05976095617529881</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1756756756756757</v>
+        <v>0.1713147410358566</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01483050847457627</v>
+        <v>0.01737451737451737</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1694915254237288</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="I17">
-        <v>0.09957627118644068</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="J17">
-        <v>0.4279661016949153</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K17">
-        <v>0.08050847457627118</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01483050847457627</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="N17">
-        <v>0.00211864406779661</v>
+        <v>0.001930501930501931</v>
       </c>
       <c r="O17">
-        <v>0.05084745762711865</v>
+        <v>0.05019305019305019</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1398305084745763</v>
+        <v>0.1370656370656371</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.00425531914893617</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.174468085106383</v>
+        <v>0.1778656126482213</v>
       </c>
       <c r="I18">
-        <v>0.1063829787234043</v>
+        <v>0.1027667984189723</v>
       </c>
       <c r="J18">
-        <v>0.4170212765957447</v>
+        <v>0.4110671936758893</v>
       </c>
       <c r="K18">
-        <v>0.1191489361702128</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02127659574468085</v>
+        <v>0.01976284584980237</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05531914893617021</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1021276595744681</v>
+        <v>0.1106719367588933</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01822323462414579</v>
+        <v>0.01713502398903358</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1738800303720577</v>
+        <v>0.1706648389307745</v>
       </c>
       <c r="I19">
-        <v>0.1009870918754746</v>
+        <v>0.1062371487320082</v>
       </c>
       <c r="J19">
-        <v>0.3568716780561883</v>
+        <v>0.3625771076079506</v>
       </c>
       <c r="K19">
-        <v>0.1207289293849658</v>
+        <v>0.1199451679232351</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02126044039483675</v>
+        <v>0.0205620287868403</v>
       </c>
       <c r="N19">
-        <v>0.0007593014426727411</v>
+        <v>0.0006854009595613434</v>
       </c>
       <c r="O19">
-        <v>0.06150341685649203</v>
+        <v>0.05962988348183688</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1457858769931663</v>
+        <v>0.1425633995887594</v>
       </c>
     </row>
   </sheetData>
